--- a/인천보고서_202504.xlsx
+++ b/인천보고서_202504.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\sidogeumgo_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0834CB00-982C-4E62-B414-9D78756F85FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D96CA8C-4773-4649-BB53-A9081AA90F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="114">
   <si>
     <t>품질관리 상세근거</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -555,11 +555,37 @@
     <t>보통예금 운용현황</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발:4
+산출물:4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발:8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무확인:8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발:39건 148시간
+업무확인:2건 8시간
+산출물:3건 12시간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -700,7 +726,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -953,17 +979,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1094,21 +1109,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1119,6 +1119,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1147,7 +1160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1164,9 +1177,6 @@
     <xf numFmtId="58" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1184,9 +1194,6 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1216,13 +1223,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="9" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1231,12 +1232,6 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1246,25 +1241,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1273,15 +1262,12 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1291,22 +1277,16 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1330,6 +1310,48 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1381,8 +1403,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1408,10 +1433,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1425,6 +1450,12 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1742,60 +1773,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A38" zoomScale="85" zoomScaleNormal="110" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="C48" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" style="18" customWidth="1"/>
-    <col min="2" max="2" width="82.625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="23" customWidth="1"/>
-    <col min="5" max="5" width="98.625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="23" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="23" customWidth="1"/>
-    <col min="8" max="8" width="23.625" style="23" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="14" style="16" customWidth="1"/>
+    <col min="2" max="2" width="82.625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="21" customWidth="1"/>
+    <col min="5" max="5" width="98.625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="62" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="62" customWidth="1"/>
+    <col min="8" max="8" width="23.625" style="21" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1804,7 +1835,7 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="44" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1813,1193 +1844,1319 @@
       <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="391.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="79" t="s">
+      <c r="E5" s="80"/>
+      <c r="F5" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="J5" s="9"/>
+      <c r="H5" s="65"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="72"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="75"/>
+      <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="63"/>
-      <c r="J6" s="9"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="66"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="75"/>
+      <c r="B7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="45">
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="52">
+        <v>2</v>
+      </c>
+      <c r="G7" s="52">
+        <v>8</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="75"/>
+      <c r="B8" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="45">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="37"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="75"/>
+      <c r="B9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="52">
+        <v>2</v>
+      </c>
+      <c r="G9" s="52">
+        <v>8</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="75"/>
+      <c r="B10" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="45">
+        <v>2</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="37"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="75"/>
+      <c r="B11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="52">
+        <v>1</v>
+      </c>
+      <c r="G11" s="52">
+        <v>8</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="75"/>
+      <c r="B12" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="45">
+        <v>3</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="37"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="75"/>
+      <c r="B13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="52">
+        <v>0</v>
+      </c>
+      <c r="G13" s="52">
+        <v>8</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="75"/>
+      <c r="B14" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="45">
+        <v>4</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="37"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="75"/>
+      <c r="B15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="52">
+        <v>0</v>
+      </c>
+      <c r="G15" s="52">
+        <v>8</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="75"/>
+      <c r="B16" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="45">
+        <v>7</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G16" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
-      <c r="B8" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="56">
+      <c r="H16" s="37"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="252.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="38"/>
+      <c r="B17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="53">
+        <v>14</v>
+      </c>
+      <c r="G17" s="53">
+        <v>8</v>
+      </c>
+      <c r="H17" s="64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="38"/>
+      <c r="B18" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="45">
+        <v>8</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="63"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="38"/>
+      <c r="B19" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="54">
+        <v>2</v>
+      </c>
+      <c r="G19" s="54">
+        <v>8</v>
+      </c>
+      <c r="H19" s="63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="38"/>
+      <c r="B20" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="45">
+        <v>9</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="63"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="38"/>
+      <c r="B21" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="54">
+        <v>0</v>
+      </c>
+      <c r="G21" s="54">
+        <v>8</v>
+      </c>
+      <c r="H21" s="63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="38"/>
+      <c r="B22" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="45">
+        <v>10</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="63"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="38"/>
+      <c r="B23" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="54">
+        <v>0</v>
+      </c>
+      <c r="G23" s="54">
+        <v>8</v>
+      </c>
+      <c r="H23" s="63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="38"/>
+      <c r="B24" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="45">
+        <v>11</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="63"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="38"/>
+      <c r="B25" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="54">
+        <v>0</v>
+      </c>
+      <c r="G25" s="54">
+        <v>8</v>
+      </c>
+      <c r="H25" s="63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="38"/>
+      <c r="B26" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="45">
+        <v>14</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="63"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="38"/>
+      <c r="B27" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="54">
+        <v>0</v>
+      </c>
+      <c r="G27" s="54">
+        <v>8</v>
+      </c>
+      <c r="H27" s="63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="38"/>
+      <c r="B28" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="45">
+        <v>15</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="63"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="38"/>
+      <c r="B29" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="54">
+        <v>2</v>
+      </c>
+      <c r="G29" s="54">
+        <v>8</v>
+      </c>
+      <c r="H29" s="63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="38"/>
+      <c r="B30" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="45">
+        <v>16</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="63"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="38"/>
+      <c r="B31" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="54">
+        <v>0</v>
+      </c>
+      <c r="G31" s="54">
+        <v>8</v>
+      </c>
+      <c r="H31" s="63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="38"/>
+      <c r="B32" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="45">
+        <v>17</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="63"/>
+    </row>
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="38"/>
+      <c r="B33" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="54">
+        <v>2</v>
+      </c>
+      <c r="G33" s="54">
+        <v>8</v>
+      </c>
+      <c r="H33" s="63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="38"/>
+      <c r="B34" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="45">
+        <v>18</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="63"/>
+    </row>
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="225.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="38"/>
+      <c r="B35" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="54">
+        <v>12</v>
+      </c>
+      <c r="G35" s="54">
+        <v>8</v>
+      </c>
+      <c r="H35" s="64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="38"/>
+      <c r="B36" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="45">
+        <v>22</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="63"/>
+    </row>
+    <row r="37" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="38"/>
+      <c r="B37" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="54">
         <v>1</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="G37" s="54">
+        <v>8</v>
+      </c>
+      <c r="H37" s="63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="38"/>
+      <c r="B38" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="45">
+        <v>23</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="46"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="72"/>
-      <c r="B9" s="11" t="s">
+      <c r="E38" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="63"/>
+    </row>
+    <row r="39" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="38"/>
+      <c r="B39" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="54">
+        <v>0</v>
+      </c>
+      <c r="G39" s="54">
+        <v>8</v>
+      </c>
+      <c r="H39" s="63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="38"/>
+      <c r="B40" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="45">
+        <v>24</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="63"/>
+    </row>
+    <row r="41" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="38"/>
+      <c r="B41" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="C41" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="46"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="72"/>
-      <c r="B10" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="56">
+      <c r="E41" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54">
+        <v>8</v>
+      </c>
+      <c r="H41" s="63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="38"/>
+      <c r="B42" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="45">
+        <v>25</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="63"/>
+    </row>
+    <row r="43" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="38"/>
+      <c r="B43" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="54">
         <v>2</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="G43" s="54">
+        <v>8</v>
+      </c>
+      <c r="H43" s="64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="38"/>
+      <c r="B44" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="45">
+        <v>28</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="46"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="11" t="s">
+      <c r="E44" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="63"/>
+    </row>
+    <row r="45" spans="1:8" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="38"/>
+      <c r="B45" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="54">
+        <v>3</v>
+      </c>
+      <c r="G45" s="54">
+        <v>8</v>
+      </c>
+      <c r="H45" s="63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="1" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="38"/>
+      <c r="B46" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="45">
+        <v>29</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="63"/>
+    </row>
+    <row r="47" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="38"/>
+      <c r="B47" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="C47" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="46"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="72"/>
-      <c r="B12" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="56">
-        <v>3</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="E47" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="54">
+        <v>1</v>
+      </c>
+      <c r="G47" s="54">
+        <v>8</v>
+      </c>
+      <c r="H47" s="63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="38"/>
+      <c r="B48" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="46"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
-      <c r="B13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="46"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="72"/>
-      <c r="B14" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="56">
-        <v>4</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="46"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="72"/>
-      <c r="B15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="13" t="s">
+      <c r="E48" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="63"/>
+    </row>
+    <row r="49" spans="1:8" s="43" customFormat="1" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="40"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="55">
+        <f>SUM(F7:F47)</f>
+        <v>44</v>
+      </c>
+      <c r="G49" s="55">
+        <f>SUM(G7:G47)</f>
+        <v>168</v>
+      </c>
+      <c r="H49" s="99" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G50" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="46"/>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="56">
-        <v>7</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="H50" s="22"/>
+    </row>
+    <row r="51" spans="1:8" s="1" customFormat="1" ht="235.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="67"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="22"/>
+    </row>
+    <row r="52" spans="1:8" s="1" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="67"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G52" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="46"/>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="252.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="47"/>
-      <c r="B17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="30"/>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="47"/>
-      <c r="B18" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="56">
-        <v>8</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="47"/>
-      <c r="B19" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="47"/>
-      <c r="B20" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="56">
-        <v>9</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="47"/>
-      <c r="B21" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="47"/>
-      <c r="B22" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="56">
-        <v>10</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="47"/>
-      <c r="B23" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-    </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="47"/>
-      <c r="B24" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="56">
-        <v>11</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-    </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="47"/>
-      <c r="B25" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
-    </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="47"/>
-      <c r="B26" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="56">
-        <v>14</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
-    </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="47"/>
-      <c r="B27" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
-    </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="47"/>
-      <c r="B28" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="56">
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" spans="1:8" s="1" customFormat="1" ht="167.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="67"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="1:8" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="67"/>
+      <c r="B54" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
-    </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="47"/>
-      <c r="B29" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30"/>
-    </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="47"/>
-      <c r="B30" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="56">
-        <v>16</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
-    </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="47"/>
-      <c r="B31" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
-    </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="47"/>
-      <c r="B32" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="56">
-        <v>17</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="30"/>
-    </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="47"/>
-      <c r="B33" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="30"/>
-    </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="47"/>
-      <c r="B34" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="56">
-        <v>18</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="30"/>
-    </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="225.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47"/>
-      <c r="B35" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="30"/>
-    </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="47"/>
-      <c r="B36" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="56">
+      <c r="G54" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="13"/>
+    </row>
+    <row r="55" spans="1:8" s="1" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="67"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="27"/>
+    </row>
+    <row r="56" spans="1:8" s="32" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="31"/>
+    </row>
+    <row r="57" spans="1:8" s="1" customFormat="1" ht="235.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="92"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="22"/>
+    </row>
+    <row r="58" spans="1:8" s="1" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="92"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" spans="1:8" s="1" customFormat="1" ht="167.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="92"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="97"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="13"/>
+    </row>
+    <row r="60" spans="1:8" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="92"/>
+      <c r="B60" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="13"/>
+    </row>
+    <row r="61" spans="1:8" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="92"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" spans="1:8" s="23" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="93"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="35"/>
+    </row>
+    <row r="63" spans="1:8" s="1" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="30"/>
-    </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="47"/>
-      <c r="B37" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="30"/>
-    </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="47"/>
-      <c r="B38" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="56">
+      <c r="B63" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
-    </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="47"/>
-      <c r="B39" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="30"/>
-    </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="47"/>
-      <c r="B40" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="56">
+      <c r="C63" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="30"/>
-    </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="47"/>
-      <c r="B41" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="30"/>
-    </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="47"/>
-      <c r="B42" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="56">
-        <v>25</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-    </row>
-    <row r="43" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="47"/>
-      <c r="B43" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="30"/>
-    </row>
-    <row r="44" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="47"/>
-      <c r="B44" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" s="56">
-        <v>28</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="30"/>
-    </row>
-    <row r="45" spans="1:8" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="47"/>
-      <c r="B45" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="30"/>
-    </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="47"/>
-      <c r="B46" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="56">
-        <v>29</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="30"/>
-    </row>
-    <row r="47" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="47"/>
-      <c r="B47" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="30"/>
-    </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="47"/>
-      <c r="B48" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="30"/>
-    </row>
-    <row r="49" spans="1:8" s="54" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="49"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="53"/>
-    </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="84" t="s">
-        <v>75</v>
-      </c>
-      <c r="F50" s="24" t="s">
+      <c r="E63" s="25"/>
+      <c r="F63" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="24" t="s">
+      <c r="G63" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="25"/>
-    </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" ht="235.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="64"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="25"/>
-    </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="64"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="15"/>
-    </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" ht="167.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="64"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="15"/>
-    </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="64"/>
-      <c r="B54" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="15"/>
-    </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="64"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="33"/>
-    </row>
-    <row r="56" spans="1:8" s="40" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="F56" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="39"/>
-    </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" ht="235.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="88"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="25"/>
-    </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="88"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="15"/>
-    </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" ht="167.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="88"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="93"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="15"/>
-    </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="88"/>
-      <c r="B60" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="15"/>
-    </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="88"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="15"/>
-    </row>
-    <row r="62" spans="1:8" s="27" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="89"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="43"/>
-    </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B63" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E63" s="31"/>
-      <c r="F63" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="37"/>
+      <c r="H63" s="30"/>
     </row>
     <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="58"/>
+      <c r="C64" s="47"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="19"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="21"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="19"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="21"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="19"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="21"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="19"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="21"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="19"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="21"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="19"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="21"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="61"/>
+      <c r="H70" s="19"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="21"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="19"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="21"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="19"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="21"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="19"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="21"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="19"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="21"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="19"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="21"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="19"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="21"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="19"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="22"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="20"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="22"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="20"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="22"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="20"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="22"/>
+      <c r="C81" s="49"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="21">
